--- a/app/data/absenteeism_data_5.xlsx
+++ b/app/data/absenteeism_data_5.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42301</v>
+        <v>53818</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Alice Silveira</t>
+          <t>Dr. Thales Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>12280.11</v>
+        <v>7830.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46014</v>
+        <v>81255</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. João Guilherme Barros</t>
+          <t>Lorenzo Barros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>9909.76</v>
+        <v>4470.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49672</v>
+        <v>44294</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benjamin Pires</t>
+          <t>Eduardo Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,89 +548,89 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7278.75</v>
+        <v>10596.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>498</v>
+        <v>67602</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Lucca Jesus</t>
+          <t>Heitor Duarte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>5439.49</v>
+        <v>5301.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7181</v>
+        <v>95467</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lara Azevedo</t>
+          <t>Sr. Vitor Gabriel Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>11700.13</v>
+        <v>8625.219999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69055</v>
+        <v>33511</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gustavo Henrique Moraes</t>
+          <t>Letícia Freitas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,22 +639,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>11941.67</v>
+        <v>3130.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61092</v>
+        <v>81521</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Levi Peixoto</t>
+          <t>Davi Luiz Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>5182.34</v>
+        <v>10348.93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97008</v>
+        <v>99725</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Gabriel Duarte</t>
+          <t>Kevin da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>11464.54</v>
+        <v>12409.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21173</v>
+        <v>4925</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maitê Monteiro</t>
+          <t>Sra. Raquel Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45083</v>
       </c>
       <c r="G10" t="n">
-        <v>8791.74</v>
+        <v>12063.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77412</v>
+        <v>84659</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruno da Cruz</t>
+          <t>Luigi Rezende</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8466.99</v>
+        <v>8516.43</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_5.xlsx
+++ b/app/data/absenteeism_data_5.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91884</v>
+        <v>90948</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucas Melo</t>
+          <t>Bernardo Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,82 +497,82 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G2" t="n">
-        <v>6361.66</v>
+        <v>5043.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53186</v>
+        <v>59617</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. João Felipe da Mota</t>
+          <t>Emanuelly Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>6171.14</v>
+        <v>10506.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20727</v>
+        <v>19710</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabrielly Fogaça</t>
+          <t>Bryan Fogaça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>7895.82</v>
+        <v>6798.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12257</v>
+        <v>14630</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elisa Ribeiro</t>
+          <t>Sra. Fernanda Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>8899.07</v>
+        <v>4747.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52918</v>
+        <v>61607</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Porto</t>
+          <t>Helena da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>3267.07</v>
+        <v>6391.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28587</v>
+        <v>62755</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Henrique Lima</t>
+          <t>Maria Vitória da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45081</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>3491.37</v>
+        <v>9579.610000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>82659</v>
+        <v>12535</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Francisco Pereira</t>
+          <t>Ana Laura das Neves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>10573.61</v>
+        <v>12442.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7797</v>
+        <v>69008</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Davi Lucas da Luz</t>
+          <t>Alícia Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>6089.85</v>
+        <v>11515.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27646</v>
+        <v>99885</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sarah Vieira</t>
+          <t>Bianca Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>3869.9</v>
+        <v>9683.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89000</v>
+        <v>70854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fernando Nogueira</t>
+          <t>Felipe Carvalho</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>7096.41</v>
+        <v>6851.73</v>
       </c>
     </row>
   </sheetData>
